--- a/code_lists/Code lists/outcomes_hesapc_codelists.xlsx
+++ b/code_lists/Code lists/outcomes_hesapc_codelists.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/bo18534_bristol_ac_uk/Documents/Main Project/Thesis writing/Method/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/bo18534_bristol_ac_uk/Documents/Main Project/CPRD/dst_cprd/code_lists/Code lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{FC25971F-F201-429E-9DD4-B3BD9546CDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3962237-1E94-4106-97F4-98685064F891}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{FC25971F-F201-429E-9DD4-B3BD9546CDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E640D3C6-35A8-46D3-B181-702A87C4F173}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-1000" windowWidth="19420" windowHeight="10420" firstSheet="3" activeTab="6" xr2:uid="{01BF2976-2758-49B4-BA19-7EEB3C25DC41}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01BF2976-2758-49B4-BA19-7EEB3C25DC41}"/>
   </bookViews>
   <sheets>
     <sheet name="cdv_icd10" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1164">
   <si>
     <t>Heart failure</t>
   </si>
@@ -3531,6 +3531,9 @@
   </si>
   <si>
     <t>Nonorganic sleep disorder, unspecified</t>
+  </si>
+  <si>
+    <t>V47.4</t>
   </si>
 </sst>
 </file>
@@ -3589,30 +3592,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3929,8 +3931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF5FEF0-F191-4670-8876-52994AA19EDF}">
   <dimension ref="A1:B235"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3941,10 +3943,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3997,82 +3999,82 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -4109,634 +4111,634 @@
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="4" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="4" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="4" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="4" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="4" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="4" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="4" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="4" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="4" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="4" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="4" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="4" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="4" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="4" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -4765,190 +4767,190 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="5" t="s">
+      <c r="A104" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="5" t="s">
+      <c r="A106" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="5" t="s">
+      <c r="A108" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="4" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="5" t="s">
+      <c r="A110" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
+      <c r="A117" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" s="4"/>
-      <c r="B119" s="5"/>
+      <c r="A119" s="3"/>
+      <c r="B119" s="4"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" s="4"/>
-      <c r="B120" s="5"/>
+      <c r="A120" s="3"/>
+      <c r="B120" s="4"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" s="4"/>
-      <c r="B121" s="5"/>
+      <c r="A121" s="3"/>
+      <c r="B121" s="4"/>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" s="4"/>
-      <c r="B122" s="5"/>
+      <c r="A122" s="3"/>
+      <c r="B122" s="4"/>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" s="4"/>
-      <c r="B123" s="5"/>
+      <c r="A123" s="3"/>
+      <c r="B123" s="4"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" s="4"/>
-      <c r="B124" s="5"/>
+      <c r="A124" s="3"/>
+      <c r="B124" s="4"/>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" s="4"/>
-      <c r="B125" s="5"/>
+      <c r="A125" s="3"/>
+      <c r="B125" s="4"/>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" s="4"/>
-      <c r="B126" s="5"/>
+      <c r="A126" s="3"/>
+      <c r="B126" s="4"/>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" s="4"/>
-      <c r="B127" s="5"/>
+      <c r="A127" s="3"/>
+      <c r="B127" s="4"/>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" s="4"/>
-      <c r="B128" s="5"/>
+      <c r="A128" s="3"/>
+      <c r="B128" s="4"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" s="4"/>
-      <c r="B130" s="5"/>
+      <c r="A130" s="3"/>
+      <c r="B130" s="4"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" s="4"/>
-      <c r="B131" s="5"/>
+      <c r="A131" s="3"/>
+      <c r="B131" s="4"/>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" s="4"/>
-      <c r="B132" s="5"/>
+      <c r="A132" s="3"/>
+      <c r="B132" s="4"/>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" s="4"/>
-      <c r="B133" s="5"/>
+      <c r="A133" s="3"/>
+      <c r="B133" s="4"/>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" s="4"/>
-      <c r="B135" s="5"/>
+      <c r="A135" s="3"/>
+      <c r="B135" s="4"/>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
@@ -5256,8 +5258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A366EC1A-7E6C-474B-8082-EA14EABB66DE}">
   <dimension ref="A1:B357"/>
   <sheetViews>
-    <sheetView topLeftCell="A340" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5266,2858 +5268,2858 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="5" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="5" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="5" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="5" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="5" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="5" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="5" t="s">
         <v>436</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="5" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="5" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="5" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="5" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="5" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="6" t="s">
+      <c r="A110" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="5" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="5" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="5" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="5" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="5" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="5" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="5" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="5" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="5" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="5" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="5" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="5" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="5" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="5" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="5" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="5" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="5" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="6" t="s">
+      <c r="A128" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B128" s="5" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B129" s="5" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="6" t="s">
+      <c r="A130" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="5" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="6" t="s">
+      <c r="A131" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="5" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="6" t="s">
+      <c r="A132" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="5" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="6" t="s">
+      <c r="A133" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="5" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="6" t="s">
+      <c r="A134" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="5" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="5" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="6" t="s">
+      <c r="A136" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="B136" s="6" t="s">
+      <c r="B136" s="5" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="6" t="s">
+      <c r="A137" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="5" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="6" t="s">
+      <c r="A138" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="5" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="6" t="s">
+      <c r="A139" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="5" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="6" t="s">
+      <c r="A140" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="5" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="6" t="s">
+      <c r="A141" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="5" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="6" t="s">
+      <c r="A142" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="5" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="6" t="s">
+      <c r="A143" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="5" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="6" t="s">
+      <c r="A144" s="5" t="s">
         <v>520</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="5" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="6" t="s">
+      <c r="A145" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="5" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="6" t="s">
+      <c r="A146" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="5" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="6" t="s">
+      <c r="A147" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="5" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="6" t="s">
+      <c r="A148" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="5" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="6" t="s">
+      <c r="A149" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="5" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="6" t="s">
+      <c r="A150" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="5" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="6" t="s">
+      <c r="A151" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="5" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="6" t="s">
+      <c r="A152" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="5" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="5" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="6" t="s">
-        <v>530</v>
-      </c>
-      <c r="B154" s="6" t="s">
+      <c r="A154" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B154" s="5" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="6" t="s">
+      <c r="A155" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="5" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="6" t="s">
+      <c r="A156" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="5" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="6" t="s">
+      <c r="A157" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="5" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="6" t="s">
+      <c r="A158" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="5" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="6" t="s">
+      <c r="A159" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="5" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="6" t="s">
+      <c r="A160" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="5" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="6" t="s">
+      <c r="A161" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="5" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="6" t="s">
+      <c r="A162" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="5" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="6" t="s">
+      <c r="A163" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="5" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="6" t="s">
+      <c r="A164" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="5" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="6" t="s">
+      <c r="A165" s="5" t="s">
         <v>561</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="5" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="6" t="s">
+      <c r="A166" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="5" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="6" t="s">
+      <c r="A167" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="5" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="6" t="s">
+      <c r="A168" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="5" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="6" t="s">
+      <c r="A169" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="5" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="6" t="s">
+      <c r="A170" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="5" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="6" t="s">
+      <c r="A171" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="5" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="6" t="s">
+      <c r="A172" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="5" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="6" t="s">
+      <c r="A173" s="5" t="s">
         <v>577</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="5" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="6" t="s">
+      <c r="A174" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="5" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="6" t="s">
+      <c r="A175" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="5" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="6" t="s">
+      <c r="A176" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="B176" s="6" t="s">
+      <c r="B176" s="5" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="6" t="s">
+      <c r="A177" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="B177" s="6" t="s">
+      <c r="B177" s="5" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="6" t="s">
+      <c r="A178" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="B178" s="6" t="s">
+      <c r="B178" s="5" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="6" t="s">
+      <c r="A179" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="5" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="6" t="s">
+      <c r="A180" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B180" s="5" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="6" t="s">
+      <c r="A181" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="5" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="6" t="s">
+      <c r="A182" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B182" s="6" t="s">
+      <c r="B182" s="5" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="6" t="s">
+      <c r="A183" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="B183" s="6" t="s">
+      <c r="B183" s="5" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="6" t="s">
+      <c r="A184" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="B184" s="6" t="s">
+      <c r="B184" s="5" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="6" t="s">
+      <c r="A185" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="B185" s="6" t="s">
+      <c r="B185" s="5" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="6" t="s">
+      <c r="A186" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="B186" s="6" t="s">
+      <c r="B186" s="5" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="6" t="s">
+      <c r="A187" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B187" s="6" t="s">
+      <c r="B187" s="5" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="6" t="s">
+      <c r="A188" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="B188" s="6" t="s">
+      <c r="B188" s="5" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="6" t="s">
+      <c r="A189" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="B189" s="6" t="s">
+      <c r="B189" s="5" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="6" t="s">
+      <c r="A190" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="B190" s="6" t="s">
+      <c r="B190" s="5" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="6" t="s">
+      <c r="A191" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B191" s="6" t="s">
+      <c r="B191" s="5" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="6" t="s">
+      <c r="A192" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="5" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="6" t="s">
+      <c r="A193" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="B193" s="6" t="s">
+      <c r="B193" s="5" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="6" t="s">
+      <c r="A194" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B194" s="5" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" s="6" t="s">
+      <c r="A195" s="5" t="s">
         <v>621</v>
       </c>
-      <c r="B195" s="6" t="s">
+      <c r="B195" s="5" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="6" t="s">
+      <c r="A196" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" s="5" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="6" t="s">
+      <c r="A197" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="B197" s="6" t="s">
+      <c r="B197" s="5" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="6" t="s">
+      <c r="A198" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="B198" s="6" t="s">
+      <c r="B198" s="5" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="6" t="s">
+      <c r="A199" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="B199" s="6" t="s">
+      <c r="B199" s="5" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="6" t="s">
+      <c r="A200" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="B200" s="6" t="s">
+      <c r="B200" s="5" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="6" t="s">
+      <c r="A201" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" s="5" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" s="6" t="s">
+      <c r="A202" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="B202" s="6" t="s">
+      <c r="B202" s="5" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="6" t="s">
+      <c r="A203" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" s="5" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="6" t="s">
+      <c r="A204" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="B204" s="6" t="s">
+      <c r="B204" s="5" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="6" t="s">
+      <c r="A205" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="B205" s="6" t="s">
+      <c r="B205" s="5" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="6" t="s">
+      <c r="A206" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B206" s="5" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="6" t="s">
+      <c r="A207" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="B207" s="6" t="s">
+      <c r="B207" s="5" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="6" t="s">
+      <c r="A208" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B208" s="5" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" s="6" t="s">
+      <c r="A209" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="B209" s="6" t="s">
+      <c r="B209" s="5" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="6" t="s">
+      <c r="A210" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="B210" s="6" t="s">
+      <c r="B210" s="5" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" s="6" t="s">
+      <c r="A211" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="B211" s="6" t="s">
+      <c r="B211" s="5" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" s="6" t="s">
+      <c r="A212" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="B212" s="6" t="s">
+      <c r="B212" s="5" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" s="6" t="s">
+      <c r="A213" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="B213" s="6" t="s">
+      <c r="B213" s="5" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" s="6" t="s">
+      <c r="A214" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B214" s="5" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" s="6" t="s">
+      <c r="A215" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B215" s="5" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="6" t="s">
+      <c r="A216" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B216" s="5" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" s="6" t="s">
+      <c r="A217" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="B217" s="6" t="s">
+      <c r="B217" s="5" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" s="6" t="s">
+      <c r="A218" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B218" s="5" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" s="6" t="s">
+      <c r="A219" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="B219" s="6" t="s">
+      <c r="B219" s="5" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" s="6" t="s">
+      <c r="A220" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="B220" s="6" t="s">
+      <c r="B220" s="5" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" s="6" t="s">
+      <c r="A221" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="B221" s="6" t="s">
+      <c r="B221" s="5" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" s="6" t="s">
+      <c r="A222" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="B222" s="6" t="s">
+      <c r="B222" s="5" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" s="6" t="s">
+      <c r="A223" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="B223" s="6" t="s">
+      <c r="B223" s="5" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="6" t="s">
+      <c r="A224" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="B224" s="6" t="s">
+      <c r="B224" s="5" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" s="6" t="s">
+      <c r="A225" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B225" s="5" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" s="6" t="s">
+      <c r="A226" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B226" s="5" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" s="6" t="s">
+      <c r="A227" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="B227" s="6" t="s">
+      <c r="B227" s="5" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="6" t="s">
+      <c r="A228" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="B228" s="6" t="s">
+      <c r="B228" s="5" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" s="6" t="s">
+      <c r="A229" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B229" s="5" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" s="6" t="s">
+      <c r="A230" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B230" s="5" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" s="6" t="s">
+      <c r="A231" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B231" s="5" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" s="6" t="s">
+      <c r="A232" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B232" s="5" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="6" t="s">
+      <c r="A233" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B233" s="5" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" s="6" t="s">
+      <c r="A234" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B234" s="5" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" s="6" t="s">
+      <c r="A235" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="B235" s="6" t="s">
+      <c r="B235" s="5" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" s="6" t="s">
+      <c r="A236" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="B236" s="5" t="s">
         <v>704</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" s="6" t="s">
+      <c r="A237" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="B237" s="6" t="s">
+      <c r="B237" s="5" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" s="6" t="s">
+      <c r="A238" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="B238" s="6" t="s">
+      <c r="B238" s="5" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" s="6" t="s">
+      <c r="A239" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="B239" s="6" t="s">
+      <c r="B239" s="5" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="6" t="s">
+      <c r="A240" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="B240" s="6" t="s">
+      <c r="B240" s="5" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" s="6" t="s">
+      <c r="A241" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="B241" s="6" t="s">
+      <c r="B241" s="5" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A242" s="6" t="s">
+      <c r="A242" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" s="5" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" s="6" t="s">
+      <c r="A243" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="B243" s="6" t="s">
+      <c r="B243" s="5" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" s="6" t="s">
+      <c r="A244" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="B244" s="6" t="s">
+      <c r="B244" s="5" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" s="6" t="s">
+      <c r="A245" s="5" t="s">
         <v>721</v>
       </c>
-      <c r="B245" s="6" t="s">
+      <c r="B245" s="5" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" s="6" t="s">
+      <c r="A246" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="B246" s="6" t="s">
+      <c r="B246" s="5" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" s="6" t="s">
+      <c r="A247" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="B247" s="6" t="s">
+      <c r="B247" s="5" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A248" s="6" t="s">
+      <c r="A248" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B248" s="5" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A249" s="6" t="s">
+      <c r="A249" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="B249" s="6" t="s">
+      <c r="B249" s="5" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A250" s="6" t="s">
+      <c r="A250" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="B250" s="6" t="s">
+      <c r="B250" s="5" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A251" s="6" t="s">
+      <c r="A251" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="B251" s="6" t="s">
+      <c r="B251" s="5" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A252" s="6" t="s">
+      <c r="A252" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="B252" s="6" t="s">
+      <c r="B252" s="5" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" s="6" t="s">
+      <c r="A253" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="B253" s="6" t="s">
+      <c r="B253" s="5" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A254" s="6" t="s">
+      <c r="A254" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="B254" s="6" t="s">
+      <c r="B254" s="5" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A255" s="6" t="s">
+      <c r="A255" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="B255" s="6" t="s">
+      <c r="B255" s="5" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A256" s="6" t="s">
+      <c r="A256" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="B256" s="6" t="s">
+      <c r="B256" s="5" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" s="6" t="s">
+      <c r="A257" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="B257" s="6" t="s">
+      <c r="B257" s="5" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A258" s="6" t="s">
+      <c r="A258" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="B258" s="5" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" s="6" t="s">
+      <c r="A259" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B259" s="5" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" s="6" t="s">
+      <c r="A260" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="B260" s="6" t="s">
+      <c r="B260" s="5" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A261" s="6" t="s">
+      <c r="A261" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B261" s="5" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" s="6" t="s">
+      <c r="A262" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="B262" s="5" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" s="6" t="s">
+      <c r="A263" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="B263" s="6" t="s">
+      <c r="B263" s="5" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" s="6" t="s">
+      <c r="A264" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B264" s="5" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" s="6" t="s">
+      <c r="A265" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B265" s="5" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" s="6" t="s">
+      <c r="A266" s="5" t="s">
         <v>763</v>
       </c>
-      <c r="B266" s="6" t="s">
+      <c r="B266" s="5" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A267" s="6" t="s">
+      <c r="A267" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="B267" s="5" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A268" s="6" t="s">
+      <c r="A268" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="B268" s="6" t="s">
+      <c r="B268" s="5" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A269" s="6" t="s">
+      <c r="A269" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="B269" s="6" t="s">
+      <c r="B269" s="5" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A270" s="6" t="s">
+      <c r="A270" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="B270" s="6" t="s">
+      <c r="B270" s="5" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A271" s="6" t="s">
+      <c r="A271" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="B271" s="5" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A272" s="6" t="s">
+      <c r="A272" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="B272" s="6" t="s">
+      <c r="B272" s="5" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A273" s="6" t="s">
+      <c r="A273" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="B273" s="6" t="s">
+      <c r="B273" s="5" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A274" s="6" t="s">
+      <c r="A274" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="B274" s="6" t="s">
+      <c r="B274" s="5" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A275" s="6" t="s">
+      <c r="A275" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="B275" s="6" t="s">
+      <c r="B275" s="5" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A276" s="6" t="s">
+      <c r="A276" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="B276" s="6" t="s">
+      <c r="B276" s="5" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A277" s="6" t="s">
+      <c r="A277" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="B277" s="6" t="s">
+      <c r="B277" s="5" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A278" s="6" t="s">
+      <c r="A278" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="B278" s="6" t="s">
+      <c r="B278" s="5" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A279" s="6" t="s">
+      <c r="A279" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="B279" s="6" t="s">
+      <c r="B279" s="5" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A280" s="6" t="s">
+      <c r="A280" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="B280" s="6" t="s">
+      <c r="B280" s="5" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A281" s="6" t="s">
+      <c r="A281" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="B281" s="6" t="s">
+      <c r="B281" s="5" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A282" s="6" t="s">
+      <c r="A282" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="B282" s="6" t="s">
+      <c r="B282" s="5" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A283" s="6" t="s">
+      <c r="A283" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="B283" s="6" t="s">
+      <c r="B283" s="5" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A284" s="6" t="s">
+      <c r="A284" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="B284" s="6" t="s">
+      <c r="B284" s="5" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A285" s="6" t="s">
+      <c r="A285" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="B285" s="6" t="s">
+      <c r="B285" s="5" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A286" s="6" t="s">
+      <c r="A286" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="B286" s="6" t="s">
+      <c r="B286" s="5" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A287" s="6" t="s">
+      <c r="A287" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="B287" s="6" t="s">
+      <c r="B287" s="5" t="s">
         <v>806</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A288" s="6" t="s">
+      <c r="A288" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="B288" s="6" t="s">
+      <c r="B288" s="5" t="s">
         <v>808</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A289" s="6" t="s">
+      <c r="A289" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="B289" s="6" t="s">
+      <c r="B289" s="5" t="s">
         <v>810</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A290" s="6" t="s">
+      <c r="A290" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="B290" s="6" t="s">
+      <c r="B290" s="5" t="s">
         <v>812</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A291" s="6" t="s">
+      <c r="A291" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="B291" s="6" t="s">
+      <c r="B291" s="5" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A292" s="6" t="s">
+      <c r="A292" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="B292" s="6" t="s">
+      <c r="B292" s="5" t="s">
         <v>816</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A293" s="6" t="s">
+      <c r="A293" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="B293" s="6" t="s">
+      <c r="B293" s="5" t="s">
         <v>818</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A294" s="6" t="s">
+      <c r="A294" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="B294" s="6" t="s">
+      <c r="B294" s="5" t="s">
         <v>820</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A295" s="6" t="s">
+      <c r="A295" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="B295" s="6" t="s">
+      <c r="B295" s="5" t="s">
         <v>822</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A296" s="6" t="s">
+      <c r="A296" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="B296" s="6" t="s">
+      <c r="B296" s="5" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A297" s="6" t="s">
+      <c r="A297" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="B297" s="6" t="s">
+      <c r="B297" s="5" t="s">
         <v>826</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A298" s="6" t="s">
+      <c r="A298" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="B298" s="6" t="s">
+      <c r="B298" s="5" t="s">
         <v>828</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A299" s="6" t="s">
+      <c r="A299" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="B299" s="6" t="s">
+      <c r="B299" s="5" t="s">
         <v>830</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A300" s="6" t="s">
+      <c r="A300" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="B300" s="6" t="s">
+      <c r="B300" s="5" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A301" s="6" t="s">
+      <c r="A301" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="B301" s="6" t="s">
+      <c r="B301" s="5" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A302" s="6" t="s">
+      <c r="A302" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="B302" s="6" t="s">
+      <c r="B302" s="5" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A303" s="6" t="s">
+      <c r="A303" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="B303" s="6" t="s">
+      <c r="B303" s="5" t="s">
         <v>838</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A304" s="6" t="s">
+      <c r="A304" s="5" t="s">
         <v>839</v>
       </c>
-      <c r="B304" s="6" t="s">
+      <c r="B304" s="5" t="s">
         <v>840</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A305" s="6" t="s">
+      <c r="A305" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="B305" s="6" t="s">
+      <c r="B305" s="5" t="s">
         <v>842</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A306" s="6" t="s">
+      <c r="A306" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="B306" s="6" t="s">
+      <c r="B306" s="5" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A307" s="6" t="s">
+      <c r="A307" s="5" t="s">
         <v>845</v>
       </c>
-      <c r="B307" s="6" t="s">
+      <c r="B307" s="5" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A308" s="6" t="s">
+      <c r="A308" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="B308" s="6" t="s">
+      <c r="B308" s="5" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A309" s="6" t="s">
+      <c r="A309" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="B309" s="6" t="s">
+      <c r="B309" s="5" t="s">
         <v>850</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A310" s="6" t="s">
+      <c r="A310" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="B310" s="6" t="s">
+      <c r="B310" s="5" t="s">
         <v>852</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A311" s="6" t="s">
+      <c r="A311" s="5" t="s">
         <v>853</v>
       </c>
-      <c r="B311" s="6" t="s">
+      <c r="B311" s="5" t="s">
         <v>854</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A312" s="6" t="s">
+      <c r="A312" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="B312" s="6" t="s">
+      <c r="B312" s="5" t="s">
         <v>856</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A313" s="6" t="s">
+      <c r="A313" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="B313" s="6" t="s">
+      <c r="B313" s="5" t="s">
         <v>858</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A314" s="6" t="s">
+      <c r="A314" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="B314" s="6" t="s">
+      <c r="B314" s="5" t="s">
         <v>860</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A315" s="6" t="s">
+      <c r="A315" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="B315" s="6" t="s">
+      <c r="B315" s="5" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A316" s="6" t="s">
+      <c r="A316" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="B316" s="6" t="s">
+      <c r="B316" s="5" t="s">
         <v>864</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A317" s="6" t="s">
+      <c r="A317" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="B317" s="6" t="s">
+      <c r="B317" s="5" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A318" s="6" t="s">
+      <c r="A318" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="B318" s="6" t="s">
+      <c r="B318" s="5" t="s">
         <v>868</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A319" s="6" t="s">
+      <c r="A319" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="B319" s="6" t="s">
+      <c r="B319" s="5" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A320" s="6" t="s">
+      <c r="A320" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="B320" s="6" t="s">
+      <c r="B320" s="5" t="s">
         <v>872</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A321" s="6" t="s">
+      <c r="A321" s="5" t="s">
         <v>873</v>
       </c>
-      <c r="B321" s="6" t="s">
+      <c r="B321" s="5" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A322" s="6" t="s">
+      <c r="A322" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B322" s="6" t="s">
+      <c r="B322" s="5" t="s">
         <v>876</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A323" s="6" t="s">
+      <c r="A323" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="B323" s="6" t="s">
+      <c r="B323" s="5" t="s">
         <v>878</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A324" s="6" t="s">
+      <c r="A324" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="B324" s="6" t="s">
+      <c r="B324" s="5" t="s">
         <v>880</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A325" s="6" t="s">
+      <c r="A325" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="B325" s="6" t="s">
+      <c r="B325" s="5" t="s">
         <v>882</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A326" s="6" t="s">
+      <c r="A326" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="B326" s="6" t="s">
+      <c r="B326" s="5" t="s">
         <v>884</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A327" s="6" t="s">
+      <c r="A327" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="B327" s="6" t="s">
+      <c r="B327" s="5" t="s">
         <v>886</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A328" s="6" t="s">
+      <c r="A328" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="B328" s="6" t="s">
+      <c r="B328" s="5" t="s">
         <v>888</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A329" s="6" t="s">
+      <c r="A329" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="B329" s="6" t="s">
+      <c r="B329" s="5" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A330" s="6" t="s">
+      <c r="A330" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="B330" s="6" t="s">
+      <c r="B330" s="5" t="s">
         <v>892</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A331" s="6" t="s">
+      <c r="A331" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="B331" s="6" t="s">
+      <c r="B331" s="5" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A332" s="6" t="s">
+      <c r="A332" s="5" t="s">
         <v>895</v>
       </c>
-      <c r="B332" s="6" t="s">
+      <c r="B332" s="5" t="s">
         <v>896</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A333" s="6" t="s">
+      <c r="A333" s="5" t="s">
         <v>897</v>
       </c>
-      <c r="B333" s="6" t="s">
+      <c r="B333" s="5" t="s">
         <v>898</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A334" s="6" t="s">
+      <c r="A334" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="B334" s="6" t="s">
+      <c r="B334" s="5" t="s">
         <v>900</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A335" s="6" t="s">
+      <c r="A335" s="5" t="s">
         <v>901</v>
       </c>
-      <c r="B335" s="6" t="s">
+      <c r="B335" s="5" t="s">
         <v>902</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A336" s="6" t="s">
+      <c r="A336" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="B336" s="6" t="s">
+      <c r="B336" s="5" t="s">
         <v>904</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A337" s="6" t="s">
+      <c r="A337" s="5" t="s">
         <v>905</v>
       </c>
-      <c r="B337" s="6" t="s">
+      <c r="B337" s="5" t="s">
         <v>906</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A338" s="6" t="s">
+      <c r="A338" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="B338" s="6" t="s">
+      <c r="B338" s="5" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A339" s="6" t="s">
+      <c r="A339" s="5" t="s">
         <v>909</v>
       </c>
-      <c r="B339" s="6" t="s">
+      <c r="B339" s="5" t="s">
         <v>910</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A340" s="6" t="s">
+      <c r="A340" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="B340" s="6" t="s">
+      <c r="B340" s="5" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A341" s="6" t="s">
+      <c r="A341" s="5" t="s">
         <v>913</v>
       </c>
-      <c r="B341" s="6" t="s">
+      <c r="B341" s="5" t="s">
         <v>914</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A342" s="6" t="s">
+      <c r="A342" s="5" t="s">
         <v>915</v>
       </c>
-      <c r="B342" s="6" t="s">
+      <c r="B342" s="5" t="s">
         <v>916</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A343" s="6" t="s">
+      <c r="A343" s="5" t="s">
         <v>917</v>
       </c>
-      <c r="B343" s="6" t="s">
+      <c r="B343" s="5" t="s">
         <v>918</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A344" s="6" t="s">
+      <c r="A344" s="5" t="s">
         <v>919</v>
       </c>
-      <c r="B344" s="6" t="s">
+      <c r="B344" s="5" t="s">
         <v>920</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A345" s="6" t="s">
+      <c r="A345" s="5" t="s">
         <v>921</v>
       </c>
-      <c r="B345" s="6" t="s">
+      <c r="B345" s="5" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A346" s="6" t="s">
+      <c r="A346" s="5" t="s">
         <v>923</v>
       </c>
-      <c r="B346" s="6" t="s">
+      <c r="B346" s="5" t="s">
         <v>924</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A347" s="6" t="s">
+      <c r="A347" s="5" t="s">
         <v>925</v>
       </c>
-      <c r="B347" s="6" t="s">
+      <c r="B347" s="5" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A348" s="6" t="s">
+      <c r="A348" s="5" t="s">
         <v>927</v>
       </c>
-      <c r="B348" s="6" t="s">
+      <c r="B348" s="5" t="s">
         <v>928</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A349" s="6" t="s">
+      <c r="A349" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="B349" s="6" t="s">
+      <c r="B349" s="5" t="s">
         <v>930</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A350" s="6" t="s">
+      <c r="A350" s="5" t="s">
         <v>931</v>
       </c>
-      <c r="B350" s="6" t="s">
+      <c r="B350" s="5" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A351" s="6" t="s">
+      <c r="A351" s="5" t="s">
         <v>933</v>
       </c>
-      <c r="B351" s="6" t="s">
+      <c r="B351" s="5" t="s">
         <v>934</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A352" s="6" t="s">
+      <c r="A352" s="5" t="s">
         <v>935</v>
       </c>
-      <c r="B352" s="6" t="s">
+      <c r="B352" s="5" t="s">
         <v>936</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A353" s="6" t="s">
+      <c r="A353" s="5" t="s">
         <v>937</v>
       </c>
-      <c r="B353" s="6" t="s">
+      <c r="B353" s="5" t="s">
         <v>938</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A354" s="6" t="s">
+      <c r="A354" s="5" t="s">
         <v>939</v>
       </c>
-      <c r="B354" s="6" t="s">
+      <c r="B354" s="5" t="s">
         <v>940</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A355" s="6" t="s">
+      <c r="A355" s="5" t="s">
         <v>941</v>
       </c>
-      <c r="B355" s="6" t="s">
+      <c r="B355" s="5" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A356" s="9" t="s">
+      <c r="A356" s="8" t="s">
         <v>943</v>
       </c>
-      <c r="B356" s="9" t="s">
+      <c r="B356" s="8" t="s">
         <v>944</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A357" s="9" t="s">
+      <c r="A357" s="8" t="s">
         <v>945</v>
       </c>
-      <c r="B357" s="9" t="s">
+      <c r="B357" s="8" t="s">
         <v>946</v>
       </c>
     </row>
@@ -8130,22 +8132,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9416CFB-89C5-4311-A885-8E5BC93FA949}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8265,7 +8266,7 @@
       <c r="A16" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>976</v>
       </c>
     </row>
@@ -8328,10 +8329,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8347,7 +8348,7 @@
       <c r="A3" s="1" t="s">
         <v>989</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>990</v>
       </c>
     </row>
@@ -8355,7 +8356,7 @@
       <c r="A4" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>992</v>
       </c>
     </row>
@@ -8363,7 +8364,7 @@
       <c r="A5" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>994</v>
       </c>
     </row>
@@ -8371,7 +8372,7 @@
       <c r="A6" s="1" t="s">
         <v>995</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>996</v>
       </c>
     </row>
@@ -8387,7 +8388,7 @@
       <c r="A8" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>1000</v>
       </c>
     </row>
@@ -8395,7 +8396,7 @@
       <c r="A9" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>1002</v>
       </c>
     </row>
@@ -8403,7 +8404,7 @@
       <c r="A10" s="1" t="s">
         <v>983</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>984</v>
       </c>
     </row>
@@ -8411,7 +8412,7 @@
       <c r="A11" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>1004</v>
       </c>
     </row>
@@ -8419,7 +8420,7 @@
       <c r="A12" s="1" t="s">
         <v>1005</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>1006</v>
       </c>
     </row>
@@ -8427,7 +8428,7 @@
       <c r="A13" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>1008</v>
       </c>
     </row>
@@ -8443,7 +8444,7 @@
       <c r="A15" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>1012</v>
       </c>
     </row>
@@ -8451,7 +8452,7 @@
       <c r="A16" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -8459,7 +8460,7 @@
       <c r="A17" s="1" t="s">
         <v>1015</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>1016</v>
       </c>
     </row>
@@ -8467,7 +8468,7 @@
       <c r="A18" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>1018</v>
       </c>
     </row>
@@ -8475,7 +8476,7 @@
       <c r="A19" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>1020</v>
       </c>
     </row>
@@ -8491,7 +8492,7 @@
       <c r="A21" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>1024</v>
       </c>
     </row>
@@ -8499,7 +8500,7 @@
       <c r="A22" s="1" t="s">
         <v>1025</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>1026</v>
       </c>
     </row>
@@ -8507,7 +8508,7 @@
       <c r="A23" s="1" t="s">
         <v>1027</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>1028</v>
       </c>
     </row>
@@ -8515,7 +8516,7 @@
       <c r="A24" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>1030</v>
       </c>
     </row>
@@ -8523,7 +8524,7 @@
       <c r="A25" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>1032</v>
       </c>
     </row>
@@ -8539,7 +8540,7 @@
       <c r="A27" s="1" t="s">
         <v>1035</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="9" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -8547,7 +8548,7 @@
       <c r="A28" s="1" t="s">
         <v>1037</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="9" t="s">
         <v>1038</v>
       </c>
     </row>
@@ -8555,7 +8556,7 @@
       <c r="A29" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>1040</v>
       </c>
     </row>
@@ -8563,7 +8564,7 @@
       <c r="A30" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>1042</v>
       </c>
     </row>
@@ -8571,7 +8572,7 @@
       <c r="A31" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="9" t="s">
         <v>1044</v>
       </c>
     </row>
@@ -8579,7 +8580,7 @@
       <c r="A32" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="9" t="s">
         <v>1046</v>
       </c>
     </row>
@@ -8587,7 +8588,7 @@
       <c r="A33" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="9" t="s">
         <v>1048</v>
       </c>
     </row>
@@ -8595,7 +8596,7 @@
       <c r="A34" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="9" t="s">
         <v>1050</v>
       </c>
     </row>
@@ -8603,7 +8604,7 @@
       <c r="A35" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="9" t="s">
         <v>1052</v>
       </c>
     </row>
@@ -8611,7 +8612,7 @@
       <c r="A36" s="1" t="s">
         <v>1053</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="9" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -8627,7 +8628,7 @@
       <c r="A38" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="9" t="s">
         <v>1058</v>
       </c>
     </row>
@@ -8635,7 +8636,7 @@
       <c r="A39" s="1" t="s">
         <v>1059</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="9" t="s">
         <v>1060</v>
       </c>
     </row>
@@ -8643,7 +8644,7 @@
       <c r="A40" s="1" t="s">
         <v>1061</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="9" t="s">
         <v>1062</v>
       </c>
     </row>
@@ -8651,7 +8652,7 @@
       <c r="A41" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="9" t="s">
         <v>1064</v>
       </c>
     </row>
@@ -8670,16 +8671,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="118" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="118" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8687,7 +8687,7 @@
       <c r="A2" s="1" t="s">
         <v>1065</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>1066</v>
       </c>
     </row>
@@ -8695,7 +8695,7 @@
       <c r="A3" s="1" t="s">
         <v>1067</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1068</v>
       </c>
     </row>
@@ -8703,7 +8703,7 @@
       <c r="A4" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>1070</v>
       </c>
     </row>
@@ -8711,7 +8711,7 @@
       <c r="A5" s="1" t="s">
         <v>1071</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>1072</v>
       </c>
     </row>
@@ -8719,7 +8719,7 @@
       <c r="A6" s="1" t="s">
         <v>1073</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>1074</v>
       </c>
     </row>
@@ -8727,7 +8727,7 @@
       <c r="A7" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>1076</v>
       </c>
     </row>
@@ -8735,7 +8735,7 @@
       <c r="A8" s="1" t="s">
         <v>1077</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>1078</v>
       </c>
     </row>
@@ -8743,7 +8743,7 @@
       <c r="A9" s="1" t="s">
         <v>1079</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>1080</v>
       </c>
     </row>
@@ -8751,7 +8751,7 @@
       <c r="A10" s="1" t="s">
         <v>1081</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>1082</v>
       </c>
     </row>
@@ -8759,7 +8759,7 @@
       <c r="A11" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>1084</v>
       </c>
     </row>
@@ -8767,7 +8767,7 @@
       <c r="A12" s="1" t="s">
         <v>1085</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>1086</v>
       </c>
     </row>
@@ -8775,7 +8775,7 @@
       <c r="A13" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>1088</v>
       </c>
     </row>
@@ -8783,7 +8783,7 @@
       <c r="A14" s="1" t="s">
         <v>1089</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>1090</v>
       </c>
     </row>
@@ -8791,7 +8791,7 @@
       <c r="A15" s="1" t="s">
         <v>1091</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>1092</v>
       </c>
     </row>
@@ -8799,7 +8799,7 @@
       <c r="A16" s="1" t="s">
         <v>1093</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>1094</v>
       </c>
     </row>
@@ -8807,7 +8807,7 @@
       <c r="A17" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>1096</v>
       </c>
     </row>
@@ -8815,7 +8815,7 @@
       <c r="A18" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>1098</v>
       </c>
     </row>
@@ -8823,7 +8823,7 @@
       <c r="A19" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>1100</v>
       </c>
     </row>
@@ -8831,7 +8831,7 @@
       <c r="A20" s="1" t="s">
         <v>1101</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>1102</v>
       </c>
     </row>
@@ -8839,7 +8839,7 @@
       <c r="A21" s="1" t="s">
         <v>1103</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>1104</v>
       </c>
     </row>
@@ -8847,7 +8847,7 @@
       <c r="A22" s="1" t="s">
         <v>1105</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>1106</v>
       </c>
     </row>
@@ -8855,7 +8855,7 @@
       <c r="A23" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>1108</v>
       </c>
     </row>
@@ -8863,7 +8863,7 @@
       <c r="A24" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>1110</v>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
       <c r="A25" s="1" t="s">
         <v>1111</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -8879,7 +8879,7 @@
       <c r="A26" s="1" t="s">
         <v>1113</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>1114</v>
       </c>
     </row>
@@ -8910,10 +8910,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8937,7 +8937,7 @@
       <c r="A4" s="1" t="s">
         <v>1121</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       <c r="A5" s="1" t="s">
         <v>1123</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       <c r="A6" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -8961,7 +8961,7 @@
       <c r="A7" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>1128</v>
       </c>
     </row>
@@ -8969,7 +8969,7 @@
       <c r="A8" s="1" t="s">
         <v>1129</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       <c r="A9" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>1132</v>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
       <c r="A10" s="1" t="s">
         <v>1133</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>1134</v>
       </c>
     </row>
@@ -8998,7 +8998,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7616C1-132D-4BA3-97BE-5E1767FA6867}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -9008,10 +9008,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -9019,7 +9019,7 @@
       <c r="A2" s="1" t="s">
         <v>1135</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -9027,23 +9027,23 @@
       <c r="A3" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>1138</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>1139</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>1141</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -9051,79 +9051,79 @@
       <c r="A6" s="1" t="s">
         <v>1143</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>1144</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>1145</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>1146</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>1147</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>1148</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>1151</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>1152</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>1153</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>1154</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="8" t="s">
         <v>1155</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>1156</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>1157</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>1158</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>1159</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>1160</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="8" t="s">
         <v>1161</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>1162</v>
       </c>
     </row>

--- a/code_lists/Code lists/outcomes_hesapc_codelists.xlsx
+++ b/code_lists/Code lists/outcomes_hesapc_codelists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uob-my.sharepoint.com/personal/bo18534_bristol_ac_uk/Documents/Main Project/CPRD/dst_cprd/code_lists/Code lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{FC25971F-F201-429E-9DD4-B3BD9546CDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E640D3C6-35A8-46D3-B181-702A87C4F173}"/>
+  <xr:revisionPtr revIDLastSave="84" documentId="8_{FC25971F-F201-429E-9DD4-B3BD9546CDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCD19336-D521-476C-9D66-D6AE829FB0DE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{01BF2976-2758-49B4-BA19-7EEB3C25DC41}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{01BF2976-2758-49B4-BA19-7EEB3C25DC41}"/>
   </bookViews>
   <sheets>
     <sheet name="cdv_icd10" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="1164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="1173">
   <si>
     <t>Heart failure</t>
   </si>
@@ -3534,6 +3534,33 @@
   </si>
   <si>
     <t>V47.4</t>
+  </si>
+  <si>
+    <t>Codelist created using:</t>
+  </si>
+  <si>
+    <t>Atrial fibrillation &amp; arrhythmias: https://phenotypes.healthdatagateway.org/phenotypes/PH571/version/1142/detail/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heart failure: https://phenotypes.healthdatagateway.org/phenotypes/PH182/version/364/detail/ </t>
+  </si>
+  <si>
+    <t>Cardiac arrest: https://datacompass.lshtm.ac.uk/id/eprint/726/1/sca_codelist.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myocardial infarction: https://phenotypes.healthdatagateway.org/phenotypes/PH1024/version/2257/detail/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stroke: https://datacompass.lshtm.ac.uk/id/eprint/728/1/stroke_codelist.csv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transient ischaemic attack: https://phenotypes.healthdatagateway.org/phenotypes/PH88/version/176/detail/ </t>
+  </si>
+  <si>
+    <t>Codelist created by M de L using https://icd.who.int/browse10/2019/en</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codelist taken from https://doi.org/10.1371/journal.pmed.1003504  </t>
   </si>
 </sst>
 </file>
@@ -3549,27 +3576,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3592,29 +3623,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3633,9 +3661,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3673,7 +3701,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3779,7 +3807,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3921,7 +3949,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3929,1325 +3957,1043 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDF5FEF0-F191-4670-8876-52994AA19EDF}">
-  <dimension ref="A1:B235"/>
+  <dimension ref="A1:G135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="4" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="4" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="G5" s="4" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="4" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="G7" s="4" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="G8" s="4" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="G9" s="4" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="4" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="4" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="4" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="4" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="4" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" s="4" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" s="4" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" s="4" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" s="4" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="4" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" s="4" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" s="4" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" s="4" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" s="4" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" s="4" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" s="4" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" s="4" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" s="4" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" s="4" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="4" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" s="1" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" s="4" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" s="4" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" s="4" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" s="4" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="4" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="4" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="4" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="4" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" s="4" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" s="4" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
-      <c r="B119" s="4"/>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="3"/>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
-      <c r="B120" s="4"/>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="3"/>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
-      <c r="B121" s="4"/>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="3"/>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
-      <c r="B122" s="4"/>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="3"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
-      <c r="B123" s="4"/>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="3"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
-      <c r="B124" s="4"/>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="3"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
-      <c r="B125" s="4"/>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="3"/>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
-      <c r="B126" s="4"/>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="3"/>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
-      <c r="B127" s="4"/>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="3"/>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
-      <c r="B128" s="4"/>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" s="2"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="3"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
-      <c r="B130" s="4"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="3"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
-      <c r="B131" s="4"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="3"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
-      <c r="B132" s="4"/>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="3"/>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
-      <c r="B133" s="4"/>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" s="2"/>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="3"/>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
-      <c r="B135" s="4"/>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" s="2"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" s="2"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" s="2"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" s="2"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" s="2"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="2"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="2"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="2"/>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="2"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="2"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="2"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="2"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="2"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="2"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="2"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="2"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="2"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="2"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="2"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="2"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="2"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="2"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="2"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="2"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="2"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="2"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="2"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="2"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="2"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="2"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="2"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="2"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="2"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="2"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="2"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="2"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="2"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="2"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="2"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A176" s="2"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A177" s="2"/>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A178" s="2"/>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A179" s="2"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="2"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="2"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="2"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="2"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="2"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="2"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="2"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="2"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="2"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="2"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="2"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="2"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="2"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="2"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="2"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="2"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="2"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="2"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="2"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="2"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="2"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="2"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="2"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="2"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="2"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="2"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="2"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="2"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="2"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="2"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="2"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="2"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="2"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="2"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" s="2"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="2"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="2"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="2"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="2"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="2"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" s="2"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" s="2"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" s="2"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="2"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="2"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="2"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="2"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="2"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="2"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="2"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="2"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="2"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="2"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="2"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="2"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="2"/>
+      <c r="B135" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5256,2870 +5002,2875 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A366EC1A-7E6C-474B-8082-EA14EABB66DE}">
-  <dimension ref="A1:B357"/>
+  <dimension ref="A1:D357"/>
   <sheetViews>
-    <sheetView topLeftCell="A328" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="187.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="187.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="D2" s="4" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="6" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="5" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="5" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="6" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="5" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="5" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="6" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="6" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="5" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="5" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="6" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="5" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="6" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="5" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="6" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="5" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="6" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="5" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="6" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="6" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="5" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="6" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="5" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="6" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="5" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="6" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="5" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="6" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="5" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="6" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="5" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="5" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="6" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="6" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="5" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="6" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="5" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="6" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="5" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="6" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="5" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="5" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="5" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="6" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="5" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="6" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="6" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="5" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="6" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="5" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="6" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="6" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="5" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="6" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="5" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="6" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="5" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="6" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="6" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="5" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="6" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="6" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="6" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="6" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="5" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="6" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="6" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="6" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="6" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="6" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="6" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="5" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="6" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="5" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="6" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="5" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="6" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="5" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="6" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="5" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="6" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="5" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="6" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="5" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="6" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="5" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="6" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="5" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="6" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="5" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="6" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="5" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="6" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="5" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="6" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="5" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="6" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="5" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="6" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="5" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="6" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="5" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="6" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="5" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="6" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="5" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B121" s="6" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="5" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="6" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="5" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="6" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="5" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="6" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="5" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="6" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="5" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="B126" s="5" t="s">
+      <c r="B126" s="6" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="5" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="B127" s="5" t="s">
+      <c r="B127" s="6" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="5" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="6" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="5" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="6" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="5" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="6" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="5" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B131" s="6" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="5" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="B132" s="5" t="s">
+      <c r="B132" s="6" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="5" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="B133" s="5" t="s">
+      <c r="B133" s="6" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="5" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="6" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="5" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="B135" s="5" t="s">
+      <c r="B135" s="6" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="5" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="B136" s="5" t="s">
+      <c r="B136" s="6" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="5" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="B137" s="5" t="s">
+      <c r="B137" s="6" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="5" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="6" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="5" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="B139" s="5" t="s">
+      <c r="B139" s="6" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="5" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="6" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="5" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="6" t="s">
         <v>514</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="6" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="5" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="6" t="s">
         <v>516</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="6" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="5" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="B143" s="5" t="s">
+      <c r="B143" s="6" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="5" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="B144" s="5" t="s">
+      <c r="B144" s="6" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="5" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="6" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="5" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" s="6" t="s">
         <v>524</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="6" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="5" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" s="6" t="s">
         <v>526</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B147" s="6" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="5" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="6" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="5" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="B149" s="5" t="s">
+      <c r="B149" s="6" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="5" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" s="6" t="s">
         <v>532</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="6" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="5" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="B151" s="5" t="s">
+      <c r="B151" s="6" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="5" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" s="6" t="s">
         <v>536</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="6" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="5" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="6" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="5" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="B154" s="5" t="s">
+      <c r="B154" s="6" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="5" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="6" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="5" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="6" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="5" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="6" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="5" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" s="6" t="s">
         <v>547</v>
       </c>
-      <c r="B158" s="5" t="s">
+      <c r="B158" s="6" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="5" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" s="6" t="s">
         <v>549</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="6" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="5" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" s="6" t="s">
         <v>551</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="6" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A161" s="5" t="s">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="B161" s="5" t="s">
+      <c r="B161" s="6" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A162" s="5" t="s">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="6" t="s">
         <v>555</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="6" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A163" s="5" t="s">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="B163" s="5" t="s">
+      <c r="B163" s="6" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A164" s="5" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="6" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A165" s="5" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="6" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A166" s="5" t="s">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="6" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A167" s="5" t="s">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="6" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A168" s="5" t="s">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="6" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A169" s="5" t="s">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="6" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A170" s="5" t="s">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="B170" s="5" t="s">
+      <c r="B170" s="6" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A171" s="5" t="s">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="B171" s="5" t="s">
+      <c r="B171" s="6" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A172" s="5" t="s">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="B172" s="5" t="s">
+      <c r="B172" s="6" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" s="5" t="s">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="6" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" s="5" t="s">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="B174" s="5" t="s">
+      <c r="B174" s="6" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" s="5" t="s">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="6" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" s="5" t="s">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="6" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" s="5" t="s">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="B177" s="5" t="s">
+      <c r="B177" s="6" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" s="5" t="s">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="6" t="s">
         <v>587</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="6" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" s="5" t="s">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
         <v>589</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="6" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" s="5" t="s">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="B180" s="5" t="s">
+      <c r="B180" s="6" t="s">
         <v>592</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" s="5" t="s">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B181" s="6" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" s="5" t="s">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="6" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" s="5" t="s">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="B183" s="6" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" s="5" t="s">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" s="6" t="s">
         <v>599</v>
       </c>
-      <c r="B184" s="5" t="s">
+      <c r="B184" s="6" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" s="5" t="s">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="6" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" s="5" t="s">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="6" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" s="5" t="s">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="B187" s="5" t="s">
+      <c r="B187" s="6" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" s="5" t="s">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="6" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" s="5" t="s">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="6" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" s="5" t="s">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="B190" s="5" t="s">
+      <c r="B190" s="6" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" s="5" t="s">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="B191" s="5" t="s">
+      <c r="B191" s="6" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" s="5" t="s">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="B192" s="5" t="s">
+      <c r="B192" s="6" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" s="5" t="s">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="B193" s="5" t="s">
+      <c r="B193" s="6" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" s="5" t="s">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="6" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" s="5" t="s">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B195" s="6" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" s="5" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="B196" s="5" t="s">
+      <c r="B196" s="6" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" s="5" t="s">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="6" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" s="5" t="s">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="6" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" s="5" t="s">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="6" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" s="5" t="s">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="6" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" s="5" t="s">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="B201" s="5" t="s">
+      <c r="B201" s="6" t="s">
         <v>634</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" s="5" t="s">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="6" t="s">
         <v>636</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" s="5" t="s">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="B203" s="5" t="s">
+      <c r="B203" s="6" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" s="5" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B204" s="5" t="s">
+      <c r="B204" s="6" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" s="5" t="s">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="B205" s="6" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" s="5" t="s">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B206" s="6" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" s="5" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="B207" s="5" t="s">
+      <c r="B207" s="6" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" s="5" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B208" s="6" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" s="5" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="6" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" s="5" t="s">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="B210" s="5" t="s">
+      <c r="B210" s="6" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" s="5" t="s">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="6" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" s="5" t="s">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" s="6" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" s="5" t="s">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="B213" s="5" t="s">
+      <c r="B213" s="6" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" s="5" t="s">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="6" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" s="5" t="s">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B215" s="6" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" s="5" t="s">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="B216" s="5" t="s">
+      <c r="B216" s="6" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" s="5" t="s">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="B217" s="5" t="s">
+      <c r="B217" s="6" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" s="5" t="s">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="6" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" s="5" t="s">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="B219" s="5" t="s">
+      <c r="B219" s="6" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" s="5" t="s">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="B220" s="5" t="s">
+      <c r="B220" s="6" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" s="5" t="s">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="B221" s="5" t="s">
+      <c r="B221" s="6" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" s="5" t="s">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B222" s="6" t="s">
         <v>676</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" s="5" t="s">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" s="6" t="s">
         <v>677</v>
       </c>
-      <c r="B223" s="5" t="s">
+      <c r="B223" s="6" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" s="5" t="s">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="B224" s="5" t="s">
+      <c r="B224" s="6" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" s="5" t="s">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="B225" s="6" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" s="5" t="s">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" s="6" t="s">
         <v>683</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B226" s="6" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" s="5" t="s">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" s="6" t="s">
         <v>685</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B227" s="6" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" s="5" t="s">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B228" s="6" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" s="5" t="s">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="B229" s="5" t="s">
+      <c r="B229" s="6" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" s="5" t="s">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="B230" s="5" t="s">
+      <c r="B230" s="6" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" s="5" t="s">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B231" s="6" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" s="5" t="s">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="B232" s="5" t="s">
+      <c r="B232" s="6" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" s="5" t="s">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="B233" s="6" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" s="5" t="s">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="B234" s="6" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" s="5" t="s">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="B235" s="5" t="s">
+      <c r="B235" s="6" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" s="5" t="s">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="B236" s="6" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" s="5" t="s">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="6" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" s="5" t="s">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="B238" s="5" t="s">
+      <c r="B238" s="6" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" s="5" t="s">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="B239" s="5" t="s">
+      <c r="B239" s="6" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" s="5" t="s">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B240" s="6" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" s="5" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="B241" s="5" t="s">
+      <c r="B241" s="6" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A242" s="5" t="s">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="B242" s="5" t="s">
+      <c r="B242" s="6" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A243" s="5" t="s">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="B243" s="5" t="s">
+      <c r="B243" s="6" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A244" s="5" t="s">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="B244" s="6" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A245" s="5" t="s">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B245" s="6" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A246" s="5" t="s">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="B246" s="5" t="s">
+      <c r="B246" s="6" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A247" s="5" t="s">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="B247" s="5" t="s">
+      <c r="B247" s="6" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A248" s="5" t="s">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="B248" s="5" t="s">
+      <c r="B248" s="6" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A249" s="5" t="s">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="B249" s="5" t="s">
+      <c r="B249" s="6" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A250" s="5" t="s">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="B250" s="5" t="s">
+      <c r="B250" s="6" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A251" s="5" t="s">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="B251" s="5" t="s">
+      <c r="B251" s="6" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A252" s="5" t="s">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="B252" s="5" t="s">
+      <c r="B252" s="6" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A253" s="5" t="s">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="B253" s="5" t="s">
+      <c r="B253" s="6" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A254" s="5" t="s">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="B254" s="5" t="s">
+      <c r="B254" s="6" t="s">
         <v>740</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A255" s="5" t="s">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" s="6" t="s">
         <v>741</v>
       </c>
-      <c r="B255" s="5" t="s">
+      <c r="B255" s="6" t="s">
         <v>742</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A256" s="5" t="s">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" s="6" t="s">
         <v>743</v>
       </c>
-      <c r="B256" s="5" t="s">
+      <c r="B256" s="6" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A257" s="5" t="s">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" s="6" t="s">
         <v>745</v>
       </c>
-      <c r="B257" s="5" t="s">
+      <c r="B257" s="6" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A258" s="5" t="s">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="B258" s="5" t="s">
+      <c r="B258" s="6" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A259" s="5" t="s">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" s="6" t="s">
         <v>749</v>
       </c>
-      <c r="B259" s="5" t="s">
+      <c r="B259" s="6" t="s">
         <v>750</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A260" s="5" t="s">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="B260" s="5" t="s">
+      <c r="B260" s="6" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A261" s="5" t="s">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="B261" s="5" t="s">
+      <c r="B261" s="6" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A262" s="5" t="s">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="B262" s="5" t="s">
+      <c r="B262" s="6" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A263" s="5" t="s">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="B263" s="5" t="s">
+      <c r="B263" s="6" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A264" s="5" t="s">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="B264" s="5" t="s">
+      <c r="B264" s="6" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A265" s="5" t="s">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="B265" s="5" t="s">
+      <c r="B265" s="6" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A266" s="5" t="s">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="B266" s="5" t="s">
+      <c r="B266" s="6" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A267" s="5" t="s">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="B267" s="5" t="s">
+      <c r="B267" s="6" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A268" s="5" t="s">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" s="6" t="s">
         <v>767</v>
       </c>
-      <c r="B268" s="5" t="s">
+      <c r="B268" s="6" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A269" s="5" t="s">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="B269" s="5" t="s">
+      <c r="B269" s="6" t="s">
         <v>770</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A270" s="5" t="s">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="B270" s="5" t="s">
+      <c r="B270" s="6" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A271" s="5" t="s">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="B271" s="5" t="s">
+      <c r="B271" s="6" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A272" s="5" t="s">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="B272" s="5" t="s">
+      <c r="B272" s="6" t="s">
         <v>776</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A273" s="5" t="s">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="B273" s="5" t="s">
+      <c r="B273" s="6" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A274" s="5" t="s">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="B274" s="5" t="s">
+      <c r="B274" s="6" t="s">
         <v>780</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A275" s="5" t="s">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="B275" s="5" t="s">
+      <c r="B275" s="6" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A276" s="5" t="s">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="B276" s="5" t="s">
+      <c r="B276" s="6" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A277" s="5" t="s">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="B277" s="5" t="s">
+      <c r="B277" s="6" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A278" s="5" t="s">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="B278" s="5" t="s">
+      <c r="B278" s="6" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A279" s="5" t="s">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="B279" s="5" t="s">
+      <c r="B279" s="6" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A280" s="5" t="s">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="B280" s="5" t="s">
+      <c r="B280" s="6" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A281" s="5" t="s">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="B281" s="5" t="s">
+      <c r="B281" s="6" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A282" s="5" t="s">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="6" t="s">
         <v>795</v>
       </c>
-      <c r="B282" s="5" t="s">
+      <c r="B282" s="6" t="s">
         <v>796</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A283" s="5" t="s">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="6" t="s">
         <v>797</v>
       </c>
-      <c r="B283" s="5" t="s">
+      <c r="B283" s="6" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A284" s="5" t="s">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="6" t="s">
         <v>799</v>
       </c>
-      <c r="B284" s="5" t="s">
+      <c r="B284" s="6" t="s">
         <v>800</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A285" s="5" t="s">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="6" t="s">
         <v>801</v>
       </c>
-      <c r="B285" s="5" t="s">
+      <c r="B285" s="6" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A286" s="5" t="s">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="B286" s="5" t="s">
+      <c r="B286" s="6" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A287" s="5" t="s">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="B287" s="5" t="s">
+      <c r="B287" s="6" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A288" s="5" t="s">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="B288" s="5" t="s">
+      <c r="B288" s="6" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A289" s="5" t="s">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="B289" s="5" t="s">
+      <c r="B289" s="6" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A290" s="5" t="s">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="6" t="s">
         <v>811</v>
       </c>
-      <c r="B290" s="5" t="s">
+      <c r="B290" s="6" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A291" s="5" t="s">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="B291" s="5" t="s">
+      <c r="B291" s="6" t="s">
         <v>814</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A292" s="5" t="s">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="6" t="s">
         <v>815</v>
       </c>
-      <c r="B292" s="5" t="s">
+      <c r="B292" s="6" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A293" s="5" t="s">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="B293" s="5" t="s">
+      <c r="B293" s="6" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A294" s="5" t="s">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="6" t="s">
         <v>819</v>
       </c>
-      <c r="B294" s="5" t="s">
+      <c r="B294" s="6" t="s">
         <v>820</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A295" s="5" t="s">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="6" t="s">
         <v>821</v>
       </c>
-      <c r="B295" s="5" t="s">
+      <c r="B295" s="6" t="s">
         <v>822</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A296" s="5" t="s">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="B296" s="5" t="s">
+      <c r="B296" s="6" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A297" s="5" t="s">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="6" t="s">
         <v>825</v>
       </c>
-      <c r="B297" s="5" t="s">
+      <c r="B297" s="6" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A298" s="5" t="s">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="6" t="s">
         <v>827</v>
       </c>
-      <c r="B298" s="5" t="s">
+      <c r="B298" s="6" t="s">
         <v>828</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A299" s="5" t="s">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="6" t="s">
         <v>829</v>
       </c>
-      <c r="B299" s="5" t="s">
+      <c r="B299" s="6" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A300" s="5" t="s">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="B300" s="5" t="s">
+      <c r="B300" s="6" t="s">
         <v>832</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A301" s="5" t="s">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="B301" s="5" t="s">
+      <c r="B301" s="6" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A302" s="5" t="s">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="6" t="s">
         <v>835</v>
       </c>
-      <c r="B302" s="5" t="s">
+      <c r="B302" s="6" t="s">
         <v>836</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A303" s="5" t="s">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="6" t="s">
         <v>837</v>
       </c>
-      <c r="B303" s="5" t="s">
+      <c r="B303" s="6" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A304" s="5" t="s">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="B304" s="5" t="s">
+      <c r="B304" s="6" t="s">
         <v>840</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A305" s="5" t="s">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="B305" s="5" t="s">
+      <c r="B305" s="6" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A306" s="5" t="s">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="B306" s="5" t="s">
+      <c r="B306" s="6" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A307" s="5" t="s">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" s="6" t="s">
         <v>845</v>
       </c>
-      <c r="B307" s="5" t="s">
+      <c r="B307" s="6" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A308" s="5" t="s">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="6" t="s">
         <v>847</v>
       </c>
-      <c r="B308" s="5" t="s">
+      <c r="B308" s="6" t="s">
         <v>848</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A309" s="5" t="s">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="6" t="s">
         <v>849</v>
       </c>
-      <c r="B309" s="5" t="s">
+      <c r="B309" s="6" t="s">
         <v>850</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A310" s="5" t="s">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="6" t="s">
         <v>851</v>
       </c>
-      <c r="B310" s="5" t="s">
+      <c r="B310" s="6" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A311" s="5" t="s">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="B311" s="5" t="s">
+      <c r="B311" s="6" t="s">
         <v>854</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A312" s="5" t="s">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="B312" s="5" t="s">
+      <c r="B312" s="6" t="s">
         <v>856</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A313" s="5" t="s">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="B313" s="5" t="s">
+      <c r="B313" s="6" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A314" s="5" t="s">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="B314" s="5" t="s">
+      <c r="B314" s="6" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A315" s="5" t="s">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="B315" s="5" t="s">
+      <c r="B315" s="6" t="s">
         <v>862</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A316" s="5" t="s">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="B316" s="5" t="s">
+      <c r="B316" s="6" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A317" s="5" t="s">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="B317" s="5" t="s">
+      <c r="B317" s="6" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A318" s="5" t="s">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="B318" s="5" t="s">
+      <c r="B318" s="6" t="s">
         <v>868</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A319" s="5" t="s">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="6" t="s">
         <v>869</v>
       </c>
-      <c r="B319" s="5" t="s">
+      <c r="B319" s="6" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A320" s="5" t="s">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="B320" s="5" t="s">
+      <c r="B320" s="6" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A321" s="5" t="s">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="B321" s="5" t="s">
+      <c r="B321" s="6" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A322" s="5" t="s">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="6" t="s">
         <v>875</v>
       </c>
-      <c r="B322" s="5" t="s">
+      <c r="B322" s="6" t="s">
         <v>876</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A323" s="5" t="s">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="B323" s="5" t="s">
+      <c r="B323" s="6" t="s">
         <v>878</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A324" s="5" t="s">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="6" t="s">
         <v>879</v>
       </c>
-      <c r="B324" s="5" t="s">
+      <c r="B324" s="6" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A325" s="5" t="s">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="B325" s="5" t="s">
+      <c r="B325" s="6" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A326" s="5" t="s">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="B326" s="5" t="s">
+      <c r="B326" s="6" t="s">
         <v>884</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A327" s="5" t="s">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="B327" s="5" t="s">
+      <c r="B327" s="6" t="s">
         <v>886</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A328" s="5" t="s">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="6" t="s">
         <v>887</v>
       </c>
-      <c r="B328" s="5" t="s">
+      <c r="B328" s="6" t="s">
         <v>888</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A329" s="5" t="s">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="B329" s="5" t="s">
+      <c r="B329" s="6" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A330" s="5" t="s">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="B330" s="5" t="s">
+      <c r="B330" s="6" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A331" s="5" t="s">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="B331" s="5" t="s">
+      <c r="B331" s="6" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A332" s="5" t="s">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="6" t="s">
         <v>895</v>
       </c>
-      <c r="B332" s="5" t="s">
+      <c r="B332" s="6" t="s">
         <v>896</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A333" s="5" t="s">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="6" t="s">
         <v>897</v>
       </c>
-      <c r="B333" s="5" t="s">
+      <c r="B333" s="6" t="s">
         <v>898</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A334" s="5" t="s">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="6" t="s">
         <v>899</v>
       </c>
-      <c r="B334" s="5" t="s">
+      <c r="B334" s="6" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A335" s="5" t="s">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="B335" s="5" t="s">
+      <c r="B335" s="6" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A336" s="5" t="s">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="6" t="s">
         <v>903</v>
       </c>
-      <c r="B336" s="5" t="s">
+      <c r="B336" s="6" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A337" s="5" t="s">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" s="6" t="s">
         <v>905</v>
       </c>
-      <c r="B337" s="5" t="s">
+      <c r="B337" s="6" t="s">
         <v>906</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A338" s="5" t="s">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" s="6" t="s">
         <v>907</v>
       </c>
-      <c r="B338" s="5" t="s">
+      <c r="B338" s="6" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A339" s="5" t="s">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" s="6" t="s">
         <v>909</v>
       </c>
-      <c r="B339" s="5" t="s">
+      <c r="B339" s="6" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A340" s="5" t="s">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="B340" s="5" t="s">
+      <c r="B340" s="6" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A341" s="5" t="s">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" s="6" t="s">
         <v>913</v>
       </c>
-      <c r="B341" s="5" t="s">
+      <c r="B341" s="6" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A342" s="5" t="s">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" s="6" t="s">
         <v>915</v>
       </c>
-      <c r="B342" s="5" t="s">
+      <c r="B342" s="6" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A343" s="5" t="s">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" s="6" t="s">
         <v>917</v>
       </c>
-      <c r="B343" s="5" t="s">
+      <c r="B343" s="6" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A344" s="5" t="s">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" s="6" t="s">
         <v>919</v>
       </c>
-      <c r="B344" s="5" t="s">
+      <c r="B344" s="6" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A345" s="5" t="s">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" s="6" t="s">
         <v>921</v>
       </c>
-      <c r="B345" s="5" t="s">
+      <c r="B345" s="6" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A346" s="5" t="s">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" s="6" t="s">
         <v>923</v>
       </c>
-      <c r="B346" s="5" t="s">
+      <c r="B346" s="6" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A347" s="5" t="s">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="B347" s="5" t="s">
+      <c r="B347" s="6" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A348" s="5" t="s">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" s="6" t="s">
         <v>927</v>
       </c>
-      <c r="B348" s="5" t="s">
+      <c r="B348" s="6" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A349" s="5" t="s">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" s="6" t="s">
         <v>929</v>
       </c>
-      <c r="B349" s="5" t="s">
+      <c r="B349" s="6" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A350" s="5" t="s">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="B350" s="5" t="s">
+      <c r="B350" s="6" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A351" s="5" t="s">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" s="6" t="s">
         <v>933</v>
       </c>
-      <c r="B351" s="5" t="s">
+      <c r="B351" s="6" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A352" s="5" t="s">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" s="6" t="s">
         <v>935</v>
       </c>
-      <c r="B352" s="5" t="s">
+      <c r="B352" s="6" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A353" s="5" t="s">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" s="6" t="s">
         <v>937</v>
       </c>
-      <c r="B353" s="5" t="s">
+      <c r="B353" s="6" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A354" s="5" t="s">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" s="6" t="s">
         <v>939</v>
       </c>
-      <c r="B354" s="5" t="s">
+      <c r="B354" s="6" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A355" s="5" t="s">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" s="6" t="s">
         <v>941</v>
       </c>
-      <c r="B355" s="5" t="s">
+      <c r="B355" s="6" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A356" s="8" t="s">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" s="7" t="s">
         <v>943</v>
       </c>
-      <c r="B356" s="8" t="s">
+      <c r="B356" s="7" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A357" s="8" t="s">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" s="7" t="s">
         <v>945</v>
       </c>
-      <c r="B357" s="8" t="s">
+      <c r="B357" s="7" t="s">
         <v>946</v>
       </c>
     </row>
@@ -8130,183 +7881,187 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9416CFB-89C5-4311-A885-8E5BC93FA949}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>947</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>949</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>951</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>953</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>955</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>957</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>959</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>961</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>963</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>965</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>967</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>969</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>971</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>973</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>975</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="3" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>977</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>979</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>981</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>983</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>985</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>986</v>
       </c>
     </row>
@@ -8317,342 +8072,347 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0413AD6D-4E7E-4178-80F8-1130BC0FC5D6}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="43.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="43.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>1001</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="8" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>1022</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>1026</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>1031</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>1032</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>1048</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>1050</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>1056</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>1058</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>1062</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>1064</v>
       </c>
     </row>
@@ -8663,231 +8423,235 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28724637-47BB-4064-BE24-1E8AFD4BC003}">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="118" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="118" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1065</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>1066</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1067</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>1068</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="D3" s="4" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>1069</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>1071</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>1072</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>1073</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="3" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>1075</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="s">
         <v>1076</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="3" t="s">
         <v>1078</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>1079</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="3" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>1081</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="3" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>1083</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="3" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>1085</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="3" t="s">
         <v>1086</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>1087</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="3" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>1089</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="3" t="s">
         <v>1090</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>1091</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="3" t="s">
         <v>1092</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>1093</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="3" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>1095</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="3" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>1097</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="3" t="s">
         <v>1098</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>1099</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="3" t="s">
         <v>1100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>1101</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="3" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>1103</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="3" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>1105</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="3" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>1107</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="3" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>1109</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="3" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>1111</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="3" t="s">
         <v>1112</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>1113</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="3" t="s">
         <v>1114</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>1115</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -8898,94 +8662,99 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA0E2FA-BE5D-4F2B-9151-98007E30D568}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="49.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="49.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1117</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1120</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>1124</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>1126</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>1128</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>1130</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>1132</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>1134</v>
       </c>
     </row>
@@ -8996,134 +8765,139 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7616C1-132D-4BA3-97BE-5E1767FA6867}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="46.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="46.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="D2" s="4" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>1138</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>1139</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>1140</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
         <v>1141</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>1145</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>1146</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
         <v>1147</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>1148</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>1149</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
         <v>1151</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
         <v>1153</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>1155</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>1156</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>1157</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>1158</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>1159</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
         <v>1161</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="7" t="s">
         <v>1162</v>
       </c>
     </row>
